--- a/list of loan application.xlsx
+++ b/list of loan application.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="LoanApplication" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Sl</t>
   </si>
@@ -24,6 +24,15 @@
     <t>Name</t>
   </si>
   <si>
+    <t xml:space="preserve">address </t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>loan type</t>
+  </si>
+  <si>
     <t>Rk smitha</t>
   </si>
   <si>
@@ -55,34 +64,13 @@
   </si>
   <si>
     <t>kongba</t>
-  </si>
-  <si>
-    <t>Thongram Rambhabati</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Issue Date</t>
-  </si>
-  <si>
-    <t>LoanType</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,53 +78,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006666"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF009999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF33CCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -144,61 +95,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF008080"/>
-      <color rgb="FF009999"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -497,161 +405,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>30000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6">
-        <v>30000</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7">
-        <v>37681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5">
-        <v>40238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7">
-        <v>40238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5">
-        <v>42795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6">
+        <v>50000</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6">
-        <v>30000</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4">
-        <v>50000</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5">
-        <v>11383</v>
       </c>
     </row>
   </sheetData>

--- a/list of loan application.xlsx
+++ b/list of loan application.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,8 +69,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,14 +107,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -161,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,10 +185,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,7 +219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,14 +394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
@@ -420,7 +410,7 @@
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -454,7 +444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -471,7 +461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -488,7 +478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -505,7 +495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -528,24 +518,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
